--- a/data/case1/20/P1_14.xlsx
+++ b/data/case1/20/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.093875145736816989</v>
+        <v>0.054833169165874551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994947630455</v>
+        <v>-0.0099999995808097708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995015670464</v>
+        <v>-0.0089999995854928017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399001895655829</v>
+        <v>0.28399259543883559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995186021948</v>
+        <v>-0.0059999995979014287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995025208364</v>
+        <v>0.033877724115711771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999408229385</v>
+        <v>-0.019999999505142085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999403266244</v>
+        <v>-0.042169433656490618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994905748366</v>
+        <v>-0.0059999995791919503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994861357209</v>
+        <v>-0.0059999995801334194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994959624701</v>
+        <v>0.02393596484794358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.019812821010026127</v>
+        <v>-0.0059999995800175121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994767254705</v>
+        <v>-0.0059999995798811767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999434609165</v>
+        <v>0.032802606050978511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994724062589</v>
+        <v>-0.0059999995785773308</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994706627646</v>
+        <v>-0.0059999995771491399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994683668234</v>
+        <v>-0.0059999995752901825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994479885714</v>
+        <v>-0.0089999995585055004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.07046799481693844</v>
+        <v>-0.008999999585962204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999495516775</v>
+        <v>-0.0089999995823148993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994948586348</v>
+        <v>-0.0089999995817304779</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994943799067</v>
+        <v>-0.0089999995813174749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994974485631</v>
+        <v>-0.0089999995817802159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999271772559</v>
+        <v>-0.041999999395549992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999267961385</v>
+        <v>-0.041999999392253073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995012312013</v>
+        <v>-0.066155039994889364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994992896433</v>
+        <v>-0.0059999995770922965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994921984268</v>
+        <v>-0.0059999995679556051</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999447986909</v>
+        <v>-0.011999999528832461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999393003787</v>
+        <v>-0.019999999482133379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.010090397022789688</v>
+        <v>-0.014999999504789585</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999383661816</v>
+        <v>-0.020999999471387198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994825439273</v>
+        <v>-0.0059999995528823291</v>
       </c>
     </row>
   </sheetData>
